--- a/Python_Assignment_2/assignment_output.xlsx
+++ b/Python_Assignment_2/assignment_output.xlsx
@@ -921,17 +921,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zachary Hill</t>
+          <t>Jessica Mcdowell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pay</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['William Rich', 'David Jarvis', 'Julia Dalton', 'Sheila Flores', 'Michelle Francis', 'Victor Mcdaniel', 'Adam Franklin', 'Robert Montes', 'David Reynolds', 'Jennifer Campbell', 'Danielle Hampton', 'Lori Ross', 'Mr. Robert Campbell', 'Zachary Hill', 'Isaac Walker', 'Mary Hughes', 'Anthony Knight', 'Casey Lewis', 'Terri Henry', 'Hannah Bates', 'Amy Huang', 'Lawrence Pearson', 'Thomas Gomez', 'Jennifer Valdez', 'Michelle Gonzalez', 'Richard Santos', 'Susan Greer', 'James Newton', 'Joseph Gonzales', 'Martha Waters', 'Megan Warren', 'Bob Jackson', 'Linda Hill', 'Shirley Giles', 'Amy Figueroa', 'Ricky Horn', 'Corey Haley', 'Beth Griffith', 'Ryan Baker', 'Maria Garcia', 'Charles Lewis', 'Joseph Olson', 'Megan Nguyen', 'Shelby Barnes', 'Travis Chapman', 'Alexandra Larson', 'Seth Johnston', 'Kenneth Mendez', 'Melinda Simmons', 'Mr. James Clark', 'David Cruz', 'Jason Tucker', 'Stephanie Hughes', 'Jared Davenport', 'Shannon Morris', 'Cameron Mack', 'Courtney Bright', 'Laurie Jones', 'Brittany Schmidt', 'David Henry', 'Sabrina Cooper', 'Lisa Johnson', 'Mrs. Alyssa Hill', 'Kim Shaw', 'Marcus Castillo', 'Colleen Williams', 'Alexandra Smith', 'Bobby Walsh', 'Tyler Cooper', 'Jessica Baker', 'Barbara Smith', 'Stanley Martin', 'Melody Kaiser', 'Kristen Bond', 'Colin Thomas', 'Kelsey Dickerson', 'David Downs', 'Andrew Henson', 'Jennifer King MD', 'Nicole Jimenez', 'Heather Boyer', 'Sherri Aguilar', 'Jill Hardin', 'Anthony Thomas', 'Alexandra King', 'Christopher Gould', 'Maria Monroe', 'Beth Johnson', 'Sandra Eaton', 'David Hanson', 'Joshua Simpson', 'Vanessa Stone']</t>
+          <t>['Jamie Torres', 'Julie Smith', 'Melissa Frazier', 'Tammy Ross', 'Maria Gibson', 'Katrina Floyd', 'Jorge Smith', 'Jenny Johnston', 'Joseph Ruiz Jr.', 'Bradley Carter', 'Paul Myers', 'Ronnie Garner', 'Elizabeth Johnson', 'Brian Martinez', 'Chelsey Booth', 'Kayla Hernandez', 'Steven Petersen', 'Glen Brown', 'Leslie Kim', 'Angel Bauer', 'Erin Odonnell', 'Maurice Ross', 'Tammy Phillips', 'Jessica Mcdowell', 'David Wiggins', 'Ryan Fuller', 'Christopher Elliott', 'Ronnie Johnson', 'Amy White', 'Eric Nelson', 'Gregory Young', 'Roger Yu', 'Sara Avila', 'James Hunt', 'Brian Hernandez', 'Tyler Cunningham', 'Joseph Phillips', 'Dr. Anthony Willis MD', 'Anne Snyder', 'Hannah Ford', 'Patrick Davies', 'Theresa Raymond', 'Andrew Thomas', 'Amanda Jones', 'Donna Webster', 'Mrs. Rhonda Stewart DDS', 'Steven Sexton', 'Sheila Smith', 'Danielle Mcdonald', 'Sean Estrada', 'David Rocha', 'Corey Johnson', 'Natalie Mcdaniel', 'Ryan Moran', 'Crystal Williams', 'Kaitlin Rosales', 'Lauren Johns', 'Richard James', 'Christina Watson', 'Alison Cervantes', 'Pamela Bennett', 'Michael Rodriguez', 'Aaron Burgess', 'Lindsay Thomas', 'Daniel Richardson Jr.', 'Kathy Banks', 'Jerry Shepherd', 'Bryan Harris', 'Stephanie Eaton', 'Darren Johnson', 'Ryan Miller', 'Christopher Welch', 'Julie Hernandez', 'Paige Hernandez', 'Dr. Michelle Kent', 'Michael Lewis', 'Megan Weaver', 'Joanna Carter', 'Jason Bryant', 'Sean Brown', 'Jeff Nguyen', 'Willie Allen', 'Megan Campbell', 'Joshua Spence', 'Colleen Young', 'Sheila Fuller', 'Heather Rivera', 'Leslie Johnson', 'Jennifer Porter', 'Krystal Walton', 'Hannah Bullock', 'Alexis Jackson', 'Veronica Johnson', 'Jill Cruz', 'Lisa Ochoa']</t>
         </is>
       </c>
     </row>
